--- a/Texts/Геймплей/Эволюция.xlsx
+++ b/Texts/Геймплей/Эволюция.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>Раздел</t>
   </si>
@@ -188,9 +188,6 @@
 [CN]не известна, желаете ли вы эволюции?</t>
   </si>
   <si>
-    <t>Эволюционировать</t>
-  </si>
-  <si>
     <t>Сводка</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>[CN][name:0]...[K]
 [CN]Öïóû ðñéíåóå âú âîåšîïòóû, œóï îéëïíô
 [CN]îå éèâåòóîà, çåìàåóå ìé âú üâïìýøéé?</t>
-  </si>
-  <si>
-    <t>Üâïìýøéïîéñïâàóû</t>
   </si>
   <si>
     <t>Òâïäëà</t>
@@ -891,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,7 +928,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -950,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -966,7 +960,7 @@
         <v>34</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -982,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -998,7 +992,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1014,7 +1008,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1030,7 +1024,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -1046,7 +1040,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1059,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1075,10 +1069,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1094,7 +1088,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1107,10 +1101,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1123,10 +1117,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -1139,10 +1133,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.3">
@@ -1155,10 +1149,10 @@
         <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1171,10 +1165,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1187,10 +1181,10 @@
         <v>19</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1203,10 +1197,10 @@
         <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1219,10 +1213,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1235,10 +1229,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1251,10 +1245,10 @@
         <v>31</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="204" x14ac:dyDescent="0.3">
@@ -1267,10 +1261,10 @@
         <v>23</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1331,10 +1325,10 @@
         <v>27</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1347,10 +1341,10 @@
         <v>28</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1363,10 +1357,10 @@
         <v>29</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -1379,10 +1373,10 @@
         <v>30</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
